--- a/ExcelData/Data_Table/PYG_DateTable_정령 능력치.xlsx
+++ b/ExcelData/Data_Table/PYG_DateTable_정령 능력치.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Soul_Table!$B$5:$T$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Soul_Table!$A$1:$T$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -1336,6 +1336,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1345,16 +1363,22 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
@@ -1363,35 +1387,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1740,20 +1740,20 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="49.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="6.75" customHeight="1"/>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="2" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -1770,17 +1770,17 @@
       <c r="F2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="39"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="13" t="s">
         <v>59</v>
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A3" s="12"/>
       <c r="B3" s="15" t="s">
         <v>14</v>
@@ -1797,121 +1797,121 @@
       <c r="F3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="39"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="15" t="s">
         <v>63</v>
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="4" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A4" s="12"/>
       <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="39"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="17" t="s">
         <v>64</v>
       </c>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A5" s="12"/>
       <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="39"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="17" t="s">
         <v>65</v>
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="6" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A6" s="12"/>
       <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="39"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="17" t="s">
         <v>66</v>
       </c>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A7" s="12"/>
       <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="17" t="s">
         <v>67</v>
       </c>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A8" s="12"/>
       <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="38" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="32" t="s">
@@ -1928,13 +1928,13 @@
       </c>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A9" s="12"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="32" t="s">
         <v>32</v>
       </c>
@@ -1949,13 +1949,13 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="10" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A10" s="12"/>
       <c r="B10" s="16">
         <v>6</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="38" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="32" t="s">
@@ -1964,207 +1964,207 @@
       <c r="F10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="32" t="s">
         <v>68</v>
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A11" s="12"/>
       <c r="B11" s="16">
         <v>7</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="49"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="33" t="s">
         <v>90</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="32" t="s">
         <v>93</v>
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A12" s="12"/>
       <c r="B12" s="16">
         <v>8</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="49"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="33" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="32" t="s">
         <v>92</v>
       </c>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A13" s="12"/>
       <c r="B13" s="16">
         <v>9</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="32" t="s">
         <v>81</v>
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A14" s="12"/>
       <c r="B14" s="16">
         <v>10</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="32" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="32" t="s">
         <v>74</v>
       </c>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A15" s="12"/>
       <c r="B15" s="16">
         <v>11</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="32" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="32" t="s">
         <v>70</v>
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A16" s="12"/>
       <c r="B16" s="16">
         <v>12</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="49"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="32" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="32" t="s">
         <v>71</v>
       </c>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A17" s="12"/>
       <c r="B17" s="16">
         <v>13</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="49"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="32" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="32" t="s">
         <v>94</v>
       </c>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A18" s="12"/>
       <c r="B18" s="16">
         <v>14</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="47"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="32" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="32" t="s">
         <v>95</v>
       </c>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A19" s="12"/>
       <c r="B19" s="16">
         <v>15</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="31" t="s">
@@ -2173,109 +2173,109 @@
       <c r="F19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="31" t="s">
         <v>72</v>
       </c>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A20" s="12"/>
       <c r="B20" s="16">
         <v>16</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="39"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="17" t="s">
         <v>72</v>
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A21" s="12"/>
       <c r="B21" s="16">
         <v>17</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="29" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="39"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="17" t="s">
         <v>72</v>
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A22" s="12"/>
       <c r="B22" s="16">
         <v>18</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="38" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="39"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="17" t="s">
         <v>84</v>
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A23" s="12"/>
       <c r="B23" s="16">
         <v>19</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="39"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="17" t="s">
         <v>73</v>
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="16">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="13.5">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2290,17 +2290,8 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="D22:E22"/>
@@ -2317,10 +2308,19 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2331,22 +2331,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="10" zoomScaleNormal="100" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E3"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.08203125" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.125" customWidth="1"/>
+    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="20" max="20" width="28.83203125" customWidth="1"/>
+    <col min="20" max="20" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
@@ -2652,7 +2652,7 @@
         <v>40</v>
       </c>
       <c r="P7" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="24">
         <v>0</v>
